--- a/Excel/ComboConfig.xlsx
+++ b/Excel/ComboConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30940" windowHeight="15260"/>
+    <workbookView windowWidth="30940" windowHeight="15440"/>
   </bookViews>
   <sheets>
     <sheet name="ComboConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -22,7 +22,16 @@
     <t>连击音效</t>
   </si>
   <si>
+    <t>连销音效</t>
+  </si>
+  <si>
+    <t>爆炸音效</t>
+  </si>
+  <si>
     <t>AudioClip</t>
+  </si>
+  <si>
+    <t>ComboAudio</t>
   </si>
   <si>
     <t>int</t>
@@ -31,13 +40,19 @@
     <t>string</t>
   </si>
   <si>
-    <t>Assets/Res/Audios/消除01.mp3</t>
+    <t>Assets/Res/Audios/q1.mp3</t>
   </si>
   <si>
-    <t>Assets/Res/Audios/消除02.mp3</t>
+    <t>Assets/Res/Audios/q2.mp3</t>
   </si>
   <si>
-    <t>Assets/Res/Audios/消除03.mp3</t>
+    <t>Assets/Res/Audios/q3.mp3</t>
+  </si>
+  <si>
+    <t>Assets/Res/Audios/q4.mp3</t>
+  </si>
+  <si>
+    <t>Assets/Res/Audios/q5.mp3</t>
   </si>
 </sst>
 </file>
@@ -45,12 +60,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,32 +87,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,55 +103,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,17 +117,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,9 +133,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,6 +148,75 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -238,43 +246,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,49 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,85 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,15 +437,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,8 +451,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -489,17 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,6 +501,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,151 +528,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,13 +1042,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:D18"/>
+  <dimension ref="C3:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:E105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.0865384615385" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7307692307692" style="1" customWidth="1"/>
@@ -1049,132 +1057,1140 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4">
+    <row r="3" spans="3:6">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="3:4">
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
       <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
       <c r="C10" s="2">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
       <c r="C12" s="2">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="3:5">
       <c r="C13" s="2">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
       <c r="C14" s="2">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
       <c r="C15" s="2">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
       <c r="C16" s="2">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
       <c r="C17" s="2">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
       <c r="C18" s="2">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="2">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="2">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="2">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="2">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="2">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="2">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="2">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="2">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="2">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="2">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="2">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="2">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="2">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="2">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="2">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="2">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="2">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="2">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="2">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="2">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="2">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="2">
+        <v>38</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="2">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="2">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" s="2">
+        <v>41</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" s="2">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" s="2">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" s="2">
+        <v>44</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50" s="2">
+        <v>45</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" s="2">
+        <v>46</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="2">
+        <v>47</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" s="2">
+        <v>48</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="C54" s="2">
+        <v>49</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" s="2">
+        <v>50</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56" s="2">
+        <v>51</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="C57" s="2">
+        <v>52</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58" s="2">
+        <v>53</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="C59" s="2">
+        <v>54</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60" s="2">
+        <v>55</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" s="2">
+        <v>56</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62" s="2">
+        <v>57</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="C63" s="2">
+        <v>58</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="C64" s="2">
+        <v>59</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="C65" s="2">
+        <v>60</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66" s="2">
+        <v>61</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67" s="2">
+        <v>62</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="C68" s="2">
+        <v>63</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="C69" s="2">
+        <v>64</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5">
+      <c r="C70" s="2">
+        <v>65</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" s="2">
+        <v>66</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5">
+      <c r="C72" s="2">
+        <v>67</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="C73" s="2">
+        <v>68</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5">
+      <c r="C74" s="2">
+        <v>69</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="C75" s="2">
+        <v>70</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="C76" s="2">
+        <v>71</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5">
+      <c r="C77" s="2">
+        <v>72</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5">
+      <c r="C78" s="2">
+        <v>73</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5">
+      <c r="C79" s="2">
+        <v>74</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5">
+      <c r="C80" s="2">
+        <v>75</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="C81" s="2">
+        <v>76</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5">
+      <c r="C82" s="2">
+        <v>77</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="C83" s="2">
+        <v>78</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5">
+      <c r="C84" s="2">
+        <v>79</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="C85" s="2">
+        <v>80</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5">
+      <c r="C86" s="2">
+        <v>81</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5">
+      <c r="C87" s="2">
+        <v>82</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="C88" s="2">
+        <v>83</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5">
+      <c r="C89" s="2">
+        <v>84</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5">
+      <c r="C90" s="2">
+        <v>85</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5">
+      <c r="C91" s="2">
+        <v>86</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5">
+      <c r="C92" s="2">
+        <v>87</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5">
+      <c r="C93" s="2">
+        <v>88</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5">
+      <c r="C94" s="2">
+        <v>89</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5">
+      <c r="C95" s="2">
+        <v>90</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5">
+      <c r="C96" s="2">
+        <v>91</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5">
+      <c r="C97" s="2">
+        <v>92</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5">
+      <c r="C98" s="2">
+        <v>93</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5">
+      <c r="C99" s="2">
+        <v>94</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5">
+      <c r="C100" s="2">
+        <v>95</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5">
+      <c r="C101" s="2">
+        <v>96</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5">
+      <c r="C102" s="2">
+        <v>97</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5">
+      <c r="C103" s="2">
+        <v>98</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5">
+      <c r="C104" s="2">
+        <v>99</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5">
+      <c r="C105" s="2">
+        <v>100</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
